--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf15-Klb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf15-Klb.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf15</t>
+  </si>
+  <si>
+    <t>Klb</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf15</t>
-  </si>
-  <si>
-    <t>Klb</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -537,22 +537,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H2">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I2">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J2">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3691756666666666</v>
+        <v>0.5623183333333334</v>
       </c>
       <c r="N2">
-        <v>1.107527</v>
+        <v>1.686955</v>
       </c>
       <c r="O2">
-        <v>0.1448013465477847</v>
+        <v>0.2111849380937466</v>
       </c>
       <c r="P2">
-        <v>0.1448013465477847</v>
+        <v>0.2111849380937466</v>
       </c>
       <c r="Q2">
-        <v>0.005980153565777778</v>
+        <v>0.02816333884611111</v>
       </c>
       <c r="R2">
-        <v>0.05382138209200001</v>
+        <v>0.253470049615</v>
       </c>
       <c r="S2">
-        <v>0.07709074635826582</v>
+        <v>0.06451208159857139</v>
       </c>
       <c r="T2">
-        <v>0.07709074635826584</v>
+        <v>0.06451208159857137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H3">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I3">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J3">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.972959</v>
       </c>
       <c r="O3">
-        <v>0.3886934281794985</v>
+        <v>0.3721759989864856</v>
       </c>
       <c r="P3">
-        <v>0.3886934281794986</v>
+        <v>0.3721759989864856</v>
       </c>
       <c r="Q3">
-        <v>0.01605265728488889</v>
+        <v>0.04963288984744445</v>
       </c>
       <c r="R3">
-        <v>0.144473915564</v>
+        <v>0.446696008627</v>
       </c>
       <c r="S3">
-        <v>0.2069363800634419</v>
+        <v>0.1136911023691842</v>
       </c>
       <c r="T3">
-        <v>0.2069363800634419</v>
+        <v>0.1136911023691842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.05008433333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.150253</v>
+      </c>
+      <c r="I4">
+        <v>0.3054767171413236</v>
+      </c>
+      <c r="J4">
+        <v>0.3054767171413236</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.01619866666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.04859600000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.5323897062851258</v>
-      </c>
-      <c r="J4">
-        <v>0.5323897062851259</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.2750643333333334</v>
+        <v>0.248985</v>
       </c>
       <c r="N4">
-        <v>0.8251930000000001</v>
+        <v>0.746955</v>
       </c>
       <c r="O4">
-        <v>0.1078881666648363</v>
+        <v>0.09350910097413062</v>
       </c>
       <c r="P4">
-        <v>0.1078881666648363</v>
+        <v>0.09350910097413061</v>
       </c>
       <c r="Q4">
-        <v>0.004455675447555557</v>
+        <v>0.012470247735</v>
       </c>
       <c r="R4">
-        <v>0.04010107902800001</v>
+        <v>0.112232229615</v>
       </c>
       <c r="S4">
-        <v>0.05743854936233288</v>
+        <v>0.02856485318841397</v>
       </c>
       <c r="T4">
-        <v>0.0574385493623329</v>
+        <v>0.02856485318841397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H5">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I5">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J5">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7067603333333333</v>
+        <v>0.484378</v>
       </c>
       <c r="N5">
-        <v>2.120281</v>
+        <v>1.453134</v>
       </c>
       <c r="O5">
-        <v>0.2772117915497171</v>
+        <v>0.1819135743584852</v>
       </c>
       <c r="P5">
-        <v>0.2772117915497171</v>
+        <v>0.1819135743584852</v>
       </c>
       <c r="Q5">
-        <v>0.01144857505288889</v>
+        <v>0.02425974921133333</v>
       </c>
       <c r="R5">
-        <v>0.103037175476</v>
+        <v>0.218337742902</v>
       </c>
       <c r="S5">
-        <v>0.1475847042819274</v>
+        <v>0.05557036149847413</v>
       </c>
       <c r="T5">
-        <v>0.1475847042819274</v>
+        <v>0.05557036149847412</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.05008433333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.150253</v>
+      </c>
+      <c r="I6">
+        <v>0.3054767171413236</v>
+      </c>
+      <c r="J6">
+        <v>0.3054767171413236</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.01619866666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.04859600000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.5323897062851258</v>
-      </c>
-      <c r="J6">
-        <v>0.5323897062851259</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.06881366666666666</v>
+        <v>0.2069713333333333</v>
       </c>
       <c r="N6">
-        <v>0.206441</v>
+        <v>0.620914</v>
       </c>
       <c r="O6">
-        <v>0.02699070522223948</v>
+        <v>0.07773039864818006</v>
       </c>
       <c r="P6">
-        <v>0.02699070522223948</v>
+        <v>0.07773039864818004</v>
       </c>
       <c r="Q6">
-        <v>0.001114689648444445</v>
+        <v>0.01036602124911111</v>
       </c>
       <c r="R6">
-        <v>0.010032206836</v>
+        <v>0.09329419124199999</v>
       </c>
       <c r="S6">
-        <v>0.01436957362569649</v>
+        <v>0.02374482700113242</v>
       </c>
       <c r="T6">
-        <v>0.01436957362569649</v>
+        <v>0.02374482700113242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.05008433333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.150253</v>
+      </c>
+      <c r="I7">
+        <v>0.3054767171413236</v>
+      </c>
+      <c r="J7">
+        <v>0.3054767171413236</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.01619866666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.04859600000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.5323897062851258</v>
-      </c>
-      <c r="J7">
-        <v>0.5323897062851259</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>0.1387316666666667</v>
+        <v>0.169043</v>
       </c>
       <c r="N7">
-        <v>0.416195</v>
+        <v>0.5071289999999999</v>
       </c>
       <c r="O7">
-        <v>0.05441456183592387</v>
+        <v>0.06348598893897206</v>
       </c>
       <c r="P7">
-        <v>0.05441456183592387</v>
+        <v>0.06348598893897206</v>
       </c>
       <c r="Q7">
-        <v>0.002247268024444445</v>
+        <v>0.008466405959666665</v>
       </c>
       <c r="R7">
-        <v>0.02022541222</v>
+        <v>0.07619765363699998</v>
       </c>
       <c r="S7">
-        <v>0.02896975259346133</v>
+        <v>0.01939349148554757</v>
       </c>
       <c r="T7">
-        <v>0.02896975259346133</v>
+        <v>0.01939349148554757</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H8">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I8">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J8">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3691756666666666</v>
+        <v>0.5623183333333334</v>
       </c>
       <c r="N8">
-        <v>1.107527</v>
+        <v>1.686955</v>
       </c>
       <c r="O8">
-        <v>0.1448013465477847</v>
+        <v>0.2111849380937466</v>
       </c>
       <c r="P8">
-        <v>0.1448013465477847</v>
+        <v>0.2111849380937466</v>
       </c>
       <c r="Q8">
-        <v>0.005252508326777777</v>
+        <v>0.06403137605611112</v>
       </c>
       <c r="R8">
-        <v>0.047272574941</v>
+        <v>0.576282384505</v>
       </c>
       <c r="S8">
-        <v>0.06771060018951888</v>
+        <v>0.1466728564951753</v>
       </c>
       <c r="T8">
-        <v>0.06771060018951888</v>
+        <v>0.1466728564951752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H9">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I9">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J9">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>2.972959</v>
       </c>
       <c r="O9">
-        <v>0.3886934281794985</v>
+        <v>0.3721759989864856</v>
       </c>
       <c r="P9">
-        <v>0.3886934281794986</v>
+        <v>0.3721759989864856</v>
       </c>
       <c r="Q9">
-        <v>0.01409942322188889</v>
+        <v>0.1128439441054444</v>
       </c>
       <c r="R9">
-        <v>0.126894808997</v>
+        <v>1.015595496949</v>
       </c>
       <c r="S9">
-        <v>0.1817570481160566</v>
+        <v>0.2584848966173014</v>
       </c>
       <c r="T9">
-        <v>0.1817570481160567</v>
+        <v>0.2584848966173014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H10">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I10">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J10">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2750643333333334</v>
+        <v>0.248985</v>
       </c>
       <c r="N10">
-        <v>0.8251930000000001</v>
+        <v>0.746955</v>
       </c>
       <c r="O10">
-        <v>0.1078881666648363</v>
+        <v>0.09350910097413062</v>
       </c>
       <c r="P10">
-        <v>0.1078881666648363</v>
+        <v>0.09350910097413061</v>
       </c>
       <c r="Q10">
-        <v>0.003913523646555556</v>
+        <v>0.028352004945</v>
       </c>
       <c r="R10">
-        <v>0.035221712819</v>
+        <v>0.255168044505</v>
       </c>
       <c r="S10">
-        <v>0.05044961730250338</v>
+        <v>0.06494424778571666</v>
       </c>
       <c r="T10">
-        <v>0.05044961730250339</v>
+        <v>0.06494424778571664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H11">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I11">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J11">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7067603333333333</v>
+        <v>0.484378</v>
       </c>
       <c r="N11">
-        <v>2.120281</v>
+        <v>1.453134</v>
       </c>
       <c r="O11">
-        <v>0.2772117915497171</v>
+        <v>0.1819135743584852</v>
       </c>
       <c r="P11">
-        <v>0.2772117915497171</v>
+        <v>0.1819135743584852</v>
       </c>
       <c r="Q11">
-        <v>0.01005555043588889</v>
+        <v>0.05515628431933333</v>
       </c>
       <c r="R11">
-        <v>0.09049995392299999</v>
+        <v>0.496406558874</v>
       </c>
       <c r="S11">
-        <v>0.1296270872677897</v>
+        <v>0.1263432128600111</v>
       </c>
       <c r="T11">
-        <v>0.1296270872677897</v>
+        <v>0.1263432128600111</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H12">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I12">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J12">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.06881366666666666</v>
+        <v>0.2069713333333333</v>
       </c>
       <c r="N12">
-        <v>0.206441</v>
+        <v>0.620914</v>
       </c>
       <c r="O12">
-        <v>0.02699070522223948</v>
+        <v>0.07773039864818006</v>
       </c>
       <c r="P12">
-        <v>0.02699070522223948</v>
+        <v>0.07773039864818004</v>
       </c>
       <c r="Q12">
-        <v>0.0009790579114444444</v>
+        <v>0.02356789471711111</v>
       </c>
       <c r="R12">
-        <v>0.008811521203</v>
+        <v>0.212111052454</v>
       </c>
       <c r="S12">
-        <v>0.01262113159654299</v>
+        <v>0.05398557164704763</v>
       </c>
       <c r="T12">
-        <v>0.01262113159654299</v>
+        <v>0.05398557164704763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,55 +1216,55 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H13">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I13">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J13">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1387316666666667</v>
+        <v>0.169043</v>
       </c>
       <c r="N13">
-        <v>0.416195</v>
+        <v>0.5071289999999999</v>
       </c>
       <c r="O13">
-        <v>0.05441456183592387</v>
+        <v>0.06348598893897206</v>
       </c>
       <c r="P13">
-        <v>0.05441456183592387</v>
+        <v>0.06348598893897206</v>
       </c>
       <c r="Q13">
-        <v>0.001973827909444444</v>
+        <v>0.01924898275766666</v>
       </c>
       <c r="R13">
-        <v>0.017764451185</v>
+        <v>0.173240844819</v>
       </c>
       <c r="S13">
-        <v>0.02544480924246254</v>
+        <v>0.04409249745342449</v>
       </c>
       <c r="T13">
-        <v>0.02544480924246255</v>
+        <v>0.04409249745342449</v>
       </c>
     </row>
   </sheetData>
